--- a/src/assets/OPRFileImport/(OPR)Import Project/(OPR)Import Project Progroup.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Project/(OPR)Import Project Progroup.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7B5F27-6236-449D-82E7-C6DC4CCC1FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7F2D1-0390-47C2-8A65-9B91EF6E8C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
